--- a/pred_ohlcv/54_21/2020-01-15 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-24966651.61265028</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-23078988.54975028</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-23767184.92175028</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>57834061.21255808</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>60158564.52355807</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>61583453.09315807</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>64258044.07035808</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>64756056.91025808</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>64414137.25685807</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>65527501.73785807</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>81910200.43955807</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>100819098.3009581</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>76594530.11023556</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>76594530.11023556</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>76594530.11023556</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>76593222.23683555</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>79549853.09023556</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>74999193.89463556</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>76129083.84963556</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>77440395.02793555</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>82079601.07350276</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>81867663.95780276</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>63249475.89698911</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>65363105.3307891</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>65360481.1331891</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>65630317.9381891</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>65751576.2513891</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>64669863.5816891</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>63921773.7282891</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>63701819.9824891</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>63697528.9824891</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>62919261.1484891</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>62917929.1484891</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>62565036.3087891</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>85637797.1124891</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>85476797.1124891</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>85889103.8684891</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>87995210.5200891</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>79896182.07678911</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>81096182.07678911</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>80748721.00526629</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>80828795.03403383</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>82845261.78063384</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>74854543.55263384</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>68200259.51073384</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>50380453.08463382</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>53790867.15743382</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>49670519.88923382</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>48375895.67553382</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>48328089.67333382</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>48334726.42543383</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>52706603.30923383</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>46111825.09523383</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>46113272.09523383</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>39363977.64903383</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>39365331.64903383</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>39255253.65703383</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>39505253.65703383</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>45858210.13953383</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>45864320.13953383</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>45333816.16083384</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>45167921.27613384</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>45297470.37053384</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>45977434.43113384</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>44638233.58604667</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>35192834.55794667</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>35205408.54804667</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>33199983.23034667</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>33664489.92697854</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>33544047.92697854</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>33200185.06697854</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>29453075.19247853</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>27767645.89327854</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-52338994.87264548</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-48514360.45370801</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-48491682.49600801</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-51738066.35060801</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-49229664.91710801</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-42938144.679308</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-33570692.950208</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-25418864.03463528</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-24966651.61265028</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-23078988.54975028</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-23767184.92175028</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-23716051.80665028</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>57834061.21255808</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>60158564.52355807</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>61583453.09315807</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>64258044.07035808</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>64756056.91025808</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>64414137.25685807</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>65527501.73785807</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>81910200.43955807</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>100819098.3009581</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>76129083.84963556</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>77440395.02793555</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>82079601.07350276</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>81867663.95780276</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>63249475.89698911</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>65363105.3307891</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>65360481.1331891</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>50380453.08463382</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>53790867.15743382</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>49670519.88923382</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>46111825.09523383</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>39363977.64903383</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>45333816.16083384</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>45167921.27613384</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-52338994.87264548</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-48514360.45370801</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-48491682.49600801</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-51738066.35060801</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-49229664.91710801</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-42938144.679308</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-33570692.950208</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-25418864.03463528</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
